--- a/results/optimization_results/snn/snn_results.xlsx
+++ b/results/optimization_results/snn/snn_results.xlsx
@@ -691,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,6 +929,206 @@
       </c>
       <c r="F11" t="n">
         <v>1.408914151114248</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>637</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.461392480013646</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.1539396062772968</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>638</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1083400470495035</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.613575924206766</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7300344874698966</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.038112241414558</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>628</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4913155134669016</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.4895001323060635</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2671037610407462</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.345639300823707</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>638</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>631</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.022307728062069</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.468023933537395</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="n">
+        <v>629</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.697559398090252</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="n">
+        <v>631</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5988194004237095</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.7861572696296458</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.189793190362725</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="n">
+        <v>629</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.53060833389567</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.2078384763749017</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7711411497296463</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.593753463967607</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="n">
+        <v>631</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="n">
+        <v>642</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3303121945864795</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.4505873845956622</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8135172363692593</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.72209078281296</v>
       </c>
     </row>
   </sheetData>
